--- a/05.cleaning/04.project.names/rev.02/project.names.from.control.xlsx
+++ b/05.cleaning/04.project.names/rev.02/project.names.from.control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\05.cleaning\04.project.names\rev.02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AABF280-7921-4EF4-87C9-A959E6BC7C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61C88F5-B60C-4445-BEB2-5778FA156E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2076" yWindow="3396" windowWidth="20964" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$153</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -853,14 +864,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
